--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2297279.770789858</v>
+        <v>2295392.189273455</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>598485.8437470767</v>
+        <v>211510.0940907298</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.178315471687517</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>339.3380645039807</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554002</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>43.83743093372763</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>398.5345605029283</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>295.4495796496458</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.553842565068688</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>192.0776352658874</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>112.8682054096739</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417139</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>101.2898147863551</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>119.7041853487928</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174148</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>82.47437332366428</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>152.6276470398221</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896923</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750029</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>93.87916681139875</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151908</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>75.06705067831034</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>106.2501394820172</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>91.94988401775063</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>237.3965091869244</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896551</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801192</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437399</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>39.73363428563762</v>
       </c>
       <c r="H31" t="n">
-        <v>6.749002612119973</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287484</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
         <v>42.2873553346313</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1364.743608328862</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C2" t="n">
-        <v>1364.743608328862</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>1364.743608328862</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T2" t="n">
         <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V2" t="n">
         <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1374.746541877783</v>
       </c>
       <c r="X2" t="n">
-        <v>1364.743608328862</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="Y2" t="n">
-        <v>1364.743608328862</v>
+        <v>1001.280783616703</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.683768698139</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.683768698139</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>1194.683768698139</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>783.6978639085316</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1672.840130122858</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1282.700798147047</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1289.01781586839</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="C8" t="n">
-        <v>920.0552989279781</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="D8" t="n">
-        <v>920.0552989279781</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>920.0552989279781</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>509.0693941383706</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>495.1459900769615</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>167.9512701129643</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.01781586839</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5063,28 +5063,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047986</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061688</v>
+        <v>359.7015465322559</v>
       </c>
       <c r="M12" t="n">
-        <v>1890.372576454149</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="N12" t="n">
-        <v>2234.893232091767</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>684.374548872294</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>515.4383659443871</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="W13" t="n">
-        <v>1133.156678913841</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="X13" t="n">
-        <v>905.1671280158241</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="Y13" t="n">
-        <v>684.374548872294</v>
+        <v>199.5300356889274</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5300,7 +5300,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171748</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="N15" t="n">
-        <v>2192.176613678825</v>
+        <v>1708.803246589661</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2378.267007892321</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5413,37 +5413,37 @@
         <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U16" t="n">
-        <v>991.9033974612801</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V16" t="n">
-        <v>737.2189092553932</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="W16" t="n">
-        <v>447.8017392184325</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="X16" t="n">
-        <v>447.8017392184325</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184325</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5492,28 +5492,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,22 +5537,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M18" t="n">
-        <v>629.3975440735812</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
         <v>1283.483062980064</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387593</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011508</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.044532683921</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,49 +5747,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M21" t="n">
-        <v>1122.004430061687</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N21" t="n">
-        <v>1926.416008325838</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="O21" t="n">
-        <v>1926.416008325838</v>
+        <v>1890.369665081593</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.670286817341</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011509</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905257</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>744.3684618792636</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143414</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028587</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1391.592897343744</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1191.672887259296</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1191.672887259296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011508</v>
+        <v>1191.672887259296</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>936.9883990534095</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="26">
@@ -6206,52 +6206,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823798</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>352.8380350170345</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.2170914602859</v>
+        <v>190.0957621852863</v>
       </c>
       <c r="C28" t="n">
-        <v>97.2170914602859</v>
+        <v>190.0957621852863</v>
       </c>
       <c r="D28" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>835.4163915387942</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>835.4163915387942</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018335</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038161</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.2170914602859</v>
+        <v>371.744227015526</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6461,13 +6461,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1039.795319932216</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M30" t="n">
-        <v>1808.163466324677</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N30" t="n">
-        <v>1808.163466324677</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110256</v>
+        <v>565.4200295030868</v>
       </c>
       <c r="C31" t="n">
-        <v>381.6713504644896</v>
+        <v>565.4200295030868</v>
       </c>
       <c r="D31" t="n">
-        <v>287.3155763335249</v>
+        <v>471.064255372122</v>
       </c>
       <c r="E31" t="n">
-        <v>195.1633480325027</v>
+        <v>378.9120270710996</v>
       </c>
       <c r="F31" t="n">
-        <v>104.0342658159626</v>
+        <v>287.78294485456</v>
       </c>
       <c r="G31" t="n">
-        <v>104.0342658159626</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933505</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323876</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818805</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894289</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386997</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220534</v>
+        <v>730.4517433652461</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598943</v>
+        <v>565.4200295030868</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,31 +6683,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6716,7 +6716,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9609591077458</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982967</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M36" t="n">
-        <v>334.288126757867</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7087,16 +7087,16 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,46 +7163,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>531.7271806036092</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>761.6902864719584</v>
       </c>
       <c r="M39" t="n">
-        <v>334.288126757867</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083206</v>
@@ -7324,19 +7324,19 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,19 +7345,19 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>334.288126757867</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>334.288126757867</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M42" t="n">
-        <v>334.288126757867</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7546,22 +7546,22 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7634,43 +7634,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>334.288126757867</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>334.288126757867</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M45" t="n">
-        <v>334.288126757867</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1283.714934706155</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1953.178696008814</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2473.479317744561</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>277.0663949456647</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9246,7 +9246,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>175.7242366109971</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>228.7561387742037</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10200,10 +10200,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>209.3059168988224</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>209.3059168988224</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>78.54216539558219</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>28.91128766941955</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.7629790749131</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>65.9570063122727</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338641</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>124.705486540696</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338658</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>143.5176026737845</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>3.714212921775615</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338612</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>56.66558900046171</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>48.84084321165304</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>71.55667754918292</v>
       </c>
       <c r="H31" t="n">
-        <v>86.9615691268589</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571475</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523555</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840712.4784360742</v>
+        <v>840712.4784360743</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840712.4784360743</v>
+        <v>840712.4784360742</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="H2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.2306459068</v>
       </c>
-      <c r="I2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="K2" t="n">
-        <v>549209.8854161144</v>
+        <v>549209.8854161145</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="M2" t="n">
         <v>554203.1946583908</v>
       </c>
       <c r="N2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583907</v>
       </c>
       <c r="O2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.275352772026089e-11</v>
+        <v>2.41190625869953e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284582</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086672</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284581</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905757551</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905757877</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758888</v>
+        <v>787.7936905758306</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758629</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477248</v>
+        <v>18952.41620477241</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189641</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189639</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189636</v>
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-257682.9018001818</v>
+        <v>-257682.9018001819</v>
       </c>
       <c r="C6" t="n">
         <v>332284.9774143626</v>
       </c>
       <c r="D6" t="n">
-        <v>332284.9774143628</v>
+        <v>332284.9774143624</v>
       </c>
       <c r="E6" t="n">
-        <v>-90045.92547028202</v>
+        <v>-90143.38459625396</v>
       </c>
       <c r="F6" t="n">
-        <v>435114.1110066145</v>
+        <v>435016.6518806424</v>
       </c>
       <c r="G6" t="n">
-        <v>435114.1110066148</v>
+        <v>435016.6518806426</v>
       </c>
       <c r="H6" t="n">
-        <v>435114.1110066143</v>
+        <v>435016.6518806425</v>
       </c>
       <c r="I6" t="n">
-        <v>435114.1110066146</v>
+        <v>435016.651880642</v>
       </c>
       <c r="J6" t="n">
-        <v>258690.8918140215</v>
+        <v>258593.4326880494</v>
       </c>
       <c r="K6" t="n">
-        <v>389466.6553782732</v>
+        <v>389448.1616403392</v>
       </c>
       <c r="L6" t="n">
-        <v>422938.6011056027</v>
+        <v>422938.6011056022</v>
       </c>
       <c r="M6" t="n">
         <v>298480.4926726319</v>
       </c>
       <c r="N6" t="n">
-        <v>433281.5079064696</v>
+        <v>433281.507906469</v>
       </c>
       <c r="O6" t="n">
-        <v>433281.5079064691</v>
+        <v>433281.5079064695</v>
       </c>
       <c r="P6" t="n">
-        <v>389118.9026036235</v>
+        <v>389118.9026036238</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.844190965032611e-14</v>
+        <v>3.014882823374412e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010834</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.844190965032611e-14</v>
+        <v>3.014882823374412e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>380.7520546005742</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>9.902904213432294</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>135.9945492482097</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>15.2496095178667</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>74.28152102882319</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>96.50703242634987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>247.5838007587593</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>162.6054063547956</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>39.06311083518739</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-2.518305564080947e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.954490531843357e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,31 +31136,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.8798454939265</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31771,13 +31771,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31792,7 +31792,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>141.3402618185949</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,10 +31908,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31920,10 +31920,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31932,7 +31932,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,13 +31944,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32008,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32029,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>371.8925761935058</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>52.55859371026932</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32157,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32169,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32181,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32321,10 +32321,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>213.9849829127209</v>
+        <v>365.4024032637854</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32336,13 +32336,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>221.6208102234704</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>134.2208565133012</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,7 +32944,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -33032,22 +33032,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33260,16 +33260,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>136.7713652592985</v>
+        <v>147.3268674777246</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -33284,7 +33284,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,10 +33497,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>267.7425307447073</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -33509,10 +33509,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
@@ -33521,13 +33521,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33743,10 +33743,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>10.78379835447038</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33758,13 +33758,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,25 +33883,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304433</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,10 +33971,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>144.2740676092158</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -33983,25 +33983,25 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -34217,28 +34217,28 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>312.2752819045315</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34457,7 +34457,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34466,16 +34466,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>70.77739093025048</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35419,19 +35419,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>138.5120151657905</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>392.60633665088</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35656,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>719.893238453726</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>237.0469549358762</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>537.5560127407025</v>
+        <v>688.973433091767</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36051,16 +36051,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>406.1091714490773</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>204.3163701631288</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36288,16 +36288,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>33.5902026889788</v>
       </c>
       <c r="N24" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>90.20175899432958</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>369.0573307828835</v>
+        <v>379.6128330013096</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36932,7 +36932,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412277</v>
+        <v>67.71102679412256</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.428956600432</v>
+        <v>94.42895660043179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>394.3663287829269</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197789</v>
+        <v>334.354828182452</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109065</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>270.8978656474354</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>71.4644779244634</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>635.8463117325131</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,13 +37950,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>71.4644779244634</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>140.8729045800781</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
